--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Website timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Tasks" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Details to enter for diamonds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Work</t>
   </si>
@@ -66,15 +66,6 @@
     <t>What to show on front page</t>
   </si>
   <si>
-    <t>Fill template</t>
-  </si>
-  <si>
-    <t>Account creation - Admin</t>
-  </si>
-  <si>
-    <t>Account creation - User</t>
-  </si>
-  <si>
     <t>Admin panel - Upload facility</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>10 - Lowest Priority</t>
   </si>
   <si>
-    <t xml:space="preserve">Data for website </t>
-  </si>
-  <si>
     <t>User panel - Delete favourite facility</t>
   </si>
   <si>
@@ -109,6 +97,87 @@
   </si>
   <si>
     <t>User creation - email authentication</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Images auto web optimize</t>
+  </si>
+  <si>
+    <t>Data for website - pictures</t>
+  </si>
+  <si>
+    <t>Data for website - matrix file</t>
+  </si>
+  <si>
+    <t>Checkin sql dump</t>
+  </si>
+  <si>
+    <t>Template Integration</t>
+  </si>
+  <si>
+    <t>Account creation - User (without email)</t>
+  </si>
+  <si>
+    <t>Account creation - Admin (without email)</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>fluorescence</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>clarity</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>Sample value</t>
+  </si>
+  <si>
+    <t>1.0 ct.</t>
+  </si>
+  <si>
+    <t>None/FNT/MED/STG/VST</t>
+  </si>
+  <si>
+    <t>EX/VG/G/F</t>
+  </si>
+  <si>
+    <t>None/GIA/HRD/IGI</t>
+  </si>
+  <si>
+    <t>D/E/F/G/H/I/J/K/L/M/N/O/P-Z</t>
+  </si>
+  <si>
+    <t>FL/IF/VVS1/VVS2/VS1/VS2/SI1/SI2/SI3/I1</t>
+  </si>
+  <si>
+    <t>Round/Princess/Marquise/Emerald/Pear/Heart/Oval/Cushion/Radiant/Cus. Brilliant/Lradiant/SQEmerald</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Mysql columns</t>
+  </si>
+  <si>
+    <t>Export to excel functionality</t>
   </si>
 </sst>
 </file>
@@ -124,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -172,16 +247,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,18 +584,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.77734375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.77734375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="3"/>
     <col min="8" max="8" width="14.88671875" style="3" customWidth="1"/>
   </cols>
@@ -520,7 +623,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -535,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -554,8 +657,11 @@
       <c r="F3" s="4">
         <v>42609</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -571,54 +677,48 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4">
-        <v>42607</v>
-      </c>
-      <c r="F8" s="4">
-        <v>42607</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -626,49 +726,79 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
+      <c r="E9" s="4">
+        <v>42607</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42607</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42607</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42607</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -679,20 +809,47 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +860,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,6 +923,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -774,12 +936,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="419"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="Website timeline" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Work</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Export to excel functionality</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -283,6 +286,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,6 +296,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -340,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,22 +594,22 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="3"/>
-    <col min="8" max="8" width="14.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -612,7 +619,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -641,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -664,7 +671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -675,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -683,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -694,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -705,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -716,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -733,10 +740,10 @@
         <v>42607</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -747,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
@@ -757,8 +764,14 @@
       <c r="E11" s="4">
         <v>42607</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="7">
+        <v>42608</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -768,8 +781,14 @@
       <c r="E12" s="4">
         <v>42607</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="7">
+        <v>42608</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -777,7 +796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -785,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -796,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -807,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -818,7 +837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -826,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -834,7 +853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
@@ -842,12 +861,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>53</v>
       </c>
@@ -866,17 +885,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -885,7 +904,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -908,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -918,12 +937,12 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
@@ -942,14 +961,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -957,7 +976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -965,7 +984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -973,7 +992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -981,7 +1000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -989,7 +1008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -997,7 +1016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1005,7 +1024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1013,7 +1032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1021,7 +1040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="14805" windowHeight="8010" tabRatio="419"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="Website timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="Tasks" sheetId="4" r:id="rId2"/>
-    <sheet name="Details to enter for diamonds" sheetId="3" r:id="rId3"/>
+    <sheet name="Daily Progress" sheetId="5" r:id="rId2"/>
+    <sheet name="Tasks" sheetId="4" r:id="rId3"/>
+    <sheet name="Details to enter for diamonds" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Work</t>
   </si>
@@ -181,6 +182,21 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Front lane dynamic</t>
+  </si>
+  <si>
+    <t>Dynamic Jewelery lane minimum working</t>
+  </si>
+  <si>
+    <t>Multiple Image Upload + Image Thumbnail Creation</t>
   </si>
 </sst>
 </file>
@@ -278,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -287,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +742,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -745,35 +762,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
-        <v>42607</v>
-      </c>
-      <c r="F11" s="7">
-        <v>42608</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -790,45 +797,51 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
       </c>
+      <c r="E13" s="4">
+        <v>42607</v>
+      </c>
+      <c r="F13" s="7">
+        <v>42608</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -837,37 +850,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -878,6 +905,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>42607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -953,7 +1018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" tabRatio="419"/>
+    <workbookView xWindow="240" yWindow="1008" windowWidth="14808" windowHeight="8016" tabRatio="419"/>
   </bookViews>
   <sheets>
     <sheet name="Website timeline" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Work</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Multiple Image Upload + Image Thumbnail Creation</t>
+  </si>
+  <si>
+    <t>Session management</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,7 +402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,22 +611,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="3"/>
-    <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="3"/>
+    <col min="8" max="8" width="43.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -666,6 +669,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -689,6 +695,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -700,6 +709,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -708,6 +720,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
@@ -719,6 +734,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -730,6 +748,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -741,6 +762,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>58</v>
       </c>
@@ -761,6 +785,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -768,6 +795,9 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -779,6 +809,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
@@ -796,6 +829,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
@@ -813,6 +849,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -821,6 +860,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -829,6 +871,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -839,7 +884,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -850,7 +898,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -861,7 +912,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
@@ -869,7 +923,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>25</v>
       </c>
@@ -877,7 +934,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
@@ -885,7 +945,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>28</v>
       </c>
@@ -893,9 +956,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -912,9 +986,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -950,14 +1024,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3"/>
-    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,11 +1100,11 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Work</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Session management</t>
+  </si>
+  <si>
+    <t>Multi-lingual option</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,6 +973,14 @@
       </c>
       <c r="B24" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>Work</t>
   </si>
@@ -203,6 +203,15 @@
   </si>
   <si>
     <t>Multi-lingual option</t>
+  </si>
+  <si>
+    <t>Browse button with default selection of images only</t>
+  </si>
+  <si>
+    <t>Website information - contact us: email, address - about us</t>
+  </si>
+  <si>
+    <t>Testsite authentication flag &amp; box</t>
   </si>
 </sst>
 </file>
@@ -614,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,6 +990,33 @@
       </c>
       <c r="B25" s="3" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Work</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>Testsite authentication flag &amp; box</t>
+  </si>
+  <si>
+    <t>Install CentOS 6 + LAMP</t>
   </si>
 </sst>
 </file>
@@ -623,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,6 +1020,17 @@
       </c>
       <c r="B28" s="3" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Website timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="Daily Progress" sheetId="5" r:id="rId2"/>
+    <sheet name="Extras" sheetId="5" r:id="rId2"/>
     <sheet name="Tasks" sheetId="4" r:id="rId3"/>
     <sheet name="Details to enter for diamonds" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>Work</t>
   </si>
@@ -55,18 +55,12 @@
     <t>1st Email sending</t>
   </si>
   <si>
-    <t>BitBucket account</t>
-  </si>
-  <si>
     <t>Karan</t>
   </si>
   <si>
     <t>Dynamic Jewelery lane</t>
   </si>
   <si>
-    <t>What to show on front page</t>
-  </si>
-  <si>
     <t>Admin panel - Upload facility</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>Data for website - matrix file</t>
   </si>
   <si>
-    <t>Checkin sql dump</t>
-  </si>
-  <si>
     <t>Template Integration</t>
   </si>
   <si>
@@ -184,15 +175,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Login page</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Front lane dynamic</t>
-  </si>
-  <si>
     <t>Dynamic Jewelery lane minimum working</t>
   </si>
   <si>
@@ -215,6 +197,24 @@
   </si>
   <si>
     <t>Install CentOS 6 + LAMP</t>
+  </si>
+  <si>
+    <t>Admin panel  - delete, edit</t>
+  </si>
+  <si>
+    <t>User panel - backend create - mandatory: password, email, name - optional: phone, address</t>
+  </si>
+  <si>
+    <t>Admin panel -show all items in a grid</t>
+  </si>
+  <si>
+    <t>Knowledge build-up on Excel sheet import/export</t>
+  </si>
+  <si>
+    <t>http://isoredirect.centos.org/centos/6/isos/x86_64/</t>
+  </si>
+  <si>
+    <t>Link to download centos6:</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -635,7 +635,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -680,7 +680,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>42609</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -739,7 +739,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -756,7 +756,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -781,10 +781,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>42607</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -814,10 +814,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -828,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -840,7 +840,7 @@
         <v>42608</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>42608</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -890,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -904,10 +904,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>10</v>
@@ -918,10 +918,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3">
         <v>10</v>
@@ -932,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3">
         <v>5</v>
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -984,7 +984,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
@@ -1019,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1027,10 +1027,78 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>42610</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>42610</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>42610</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>42610</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1041,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,23 +1121,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>42607</v>
+      <c r="A2" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1079,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,24 +1186,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1170,79 +1212,79 @@
   <sheetData>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1008" windowWidth="14808" windowHeight="8016" tabRatio="419"/>
+    <workbookView xWindow="240" yWindow="1008" windowWidth="14808" windowHeight="8016" tabRatio="545"/>
   </bookViews>
   <sheets>
     <sheet name="Website timeline" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Work</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Link to download centos6:</t>
+  </si>
+  <si>
+    <t>New mysql tables required for excel upload (check Products upload excel file)</t>
   </si>
 </sst>
 </file>
@@ -626,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1101,6 +1104,17 @@
         <v>25</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1140,7 +1154,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>Work</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>New mysql tables required for excel upload (check Products upload excel file)</t>
+  </si>
+  <si>
+    <t>Verify if photos are also removed on admin delete request</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,6 +1116,14 @@
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t>Work</t>
   </si>
@@ -221,6 +221,18 @@
   </si>
   <si>
     <t>Verify if photos are also removed on admin delete request</t>
+  </si>
+  <si>
+    <t>admin panel: max 20 featured log msg</t>
+  </si>
+  <si>
+    <t>admin panel: new letter page</t>
+  </si>
+  <si>
+    <t>admin panel: diamond quotes page</t>
+  </si>
+  <si>
+    <t>admin panel: edit/add images to existing records</t>
   </si>
 </sst>
 </file>
@@ -632,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,6 +1136,38 @@
       </c>
       <c r="B35" s="3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Work</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>admin panel: edit/add images to existing records</t>
+  </si>
+  <si>
+    <t>company id should be a dropdown with separate table</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,6 +1171,14 @@
       </c>
       <c r="B39" s="3" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
   <si>
     <t>Work</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>company id should be a dropdown with separate table</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -343,6 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1012,8 +1022,15 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>55</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,9 +1194,14 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Work</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>add favicon</t>
   </si>
 </sst>
 </file>
@@ -657,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,6 +1205,14 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/info.xlsx
+++ b/docs/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>Work</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>add favicon</t>
+  </si>
+  <si>
+    <t>cronjob to delete files in export folder older then 1 month</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,6 +1215,17 @@
       </c>
       <c r="B41" s="3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
